--- a/Test Scenerio.xlsx
+++ b/Test Scenerio.xlsx
@@ -4,18 +4,19 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="60" windowWidth="19420" windowHeight="10490"/>
+    <workbookView xWindow="240" yWindow="60" windowWidth="19420" windowHeight="10490" tabRatio="294" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Test Scenerio" sheetId="4" r:id="rId1"/>
     <sheet name="Register" sheetId="5" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="8" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="70">
   <si>
     <t>Creation Date</t>
   </si>
@@ -101,18 +102,6 @@
     <t>TS 007 Product Display Page</t>
   </si>
   <si>
-    <t>TS 009 Add to Cart</t>
-  </si>
-  <si>
-    <t>TS 010 Wish List</t>
-  </si>
-  <si>
-    <t>TS 011 Shopping Cart</t>
-  </si>
-  <si>
-    <t>TS 012 Home Page</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Validate the working of Register Account Functionality</t>
   </si>
   <si>
@@ -161,9 +150,6 @@
     <t>Test Case ID</t>
   </si>
   <si>
-    <t>Test Scenerio</t>
-  </si>
-  <si>
     <t>Test Case Title</t>
   </si>
   <si>
@@ -173,10 +159,78 @@
     <t>Test Steps</t>
   </si>
   <si>
-    <t>Test Date</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TS 008 </t>
+    <t>TS 008 Add to Cart</t>
+  </si>
+  <si>
+    <t>TS 009  Wish List</t>
+  </si>
+  <si>
+    <t>TS 010 Shopping Cart</t>
+  </si>
+  <si>
+    <t>TS 011 Home Page</t>
+  </si>
+  <si>
+    <t>TS 012 Order History</t>
+  </si>
+  <si>
+    <t>Validate the Working of Order History</t>
+  </si>
+  <si>
+    <t>Validate the working of My Account&lt;Edit Account Information</t>
+  </si>
+  <si>
+    <t>Validate the working of My Account&lt;Change Password</t>
+  </si>
+  <si>
+    <t>Validate the working of My Account&lt;Modify address book entries</t>
+  </si>
+  <si>
+    <t>Validate the working of My Account&lt;modify wish list</t>
+  </si>
+  <si>
+    <t>Validate the working of My Orders&lt;view your order</t>
+  </si>
+  <si>
+    <t>Test Data</t>
+  </si>
+  <si>
+    <t>Expected Result</t>
+  </si>
+  <si>
+    <t>Actual Result</t>
+  </si>
+  <si>
+    <t>Result</t>
+  </si>
+  <si>
+    <t>TC ID 001</t>
+  </si>
+  <si>
+    <t>TS ID 001</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>1. Open the Application (https://demo.opencart.com) in any Browser</t>
+  </si>
+  <si>
+    <t>Validate the registering an account by filling only mandatory field</t>
+  </si>
+  <si>
+    <t>1. Click on 'My Account' Drop menu
+2. Click on 'Register' option 
+3. Enter new Account Details into the Mandatory Fields (First Name, Last Name, E-Mail,Telephone, Password, Password Confirm and  Privacy Policy Fields)
+4. Click on 'Continue' button (ER-1)
+5. Click on 'Continue' button that is displayed in the 'Account Success' page (ER-2)</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>1. User should be logged in,  taken to 'Account Succcess' page and proper details should be displayed on the page
+2. User should be taken to 'Account' page and a confirm email should be sent to the registed email address</t>
   </si>
 </sst>
 </file>
@@ -264,13 +318,19 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="2" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Accent1" xfId="2" builtinId="29"/>
@@ -306,6 +366,15 @@
     </tableStyle>
   </tableStyles>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="A4" headerRowCount="0" insertRow="1">
+  <tableColumns count="1">
+    <tableColumn id="1" name="Column1" totalsRowFunction="count"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="1"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -595,8 +664,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -681,10 +750,10 @@
         <v>20</v>
       </c>
       <c r="C8" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
@@ -700,10 +769,10 @@
         <v>20</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
@@ -719,10 +788,10 @@
         <v>20</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>
@@ -738,10 +807,10 @@
         <v>20</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
@@ -757,10 +826,10 @@
         <v>20</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
@@ -776,10 +845,10 @@
         <v>20</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
@@ -795,10 +864,10 @@
         <v>20</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
@@ -808,13 +877,17 @@
     </row>
     <row r="15" spans="1:9">
       <c r="A15" s="3" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
+      <c r="C15" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>39</v>
+      </c>
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
@@ -823,16 +896,16 @@
     </row>
     <row r="16" spans="1:9">
       <c r="A16" s="3" t="s">
-        <v>28</v>
+        <v>48</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>20</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -842,16 +915,16 @@
     </row>
     <row r="17" spans="1:9">
       <c r="A17" s="3" t="s">
-        <v>29</v>
+        <v>49</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>20</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
@@ -861,16 +934,16 @@
     </row>
     <row r="18" spans="1:9">
       <c r="A18" s="3" t="s">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="B18" s="3" t="s">
         <v>20</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="E18" s="3"/>
       <c r="F18" s="3"/>
@@ -880,16 +953,16 @@
     </row>
     <row r="19" spans="1:9">
       <c r="A19" s="3" t="s">
-        <v>31</v>
+        <v>51</v>
       </c>
       <c r="B19" s="3" t="s">
         <v>20</v>
       </c>
       <c r="C19" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D19" s="3" t="s">
         <v>42</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>44</v>
       </c>
       <c r="E19" s="3"/>
       <c r="F19" s="3"/>
@@ -904,8 +977,12 @@
       <c r="B20" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
+      <c r="C20" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>41</v>
+      </c>
       <c r="E20" s="3"/>
       <c r="F20" s="3"/>
       <c r="G20" s="3"/>
@@ -919,8 +996,12 @@
       <c r="B21" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
+      <c r="C21" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>41</v>
+      </c>
       <c r="E21" s="3"/>
       <c r="F21" s="3"/>
       <c r="G21" s="3"/>
@@ -934,8 +1015,12 @@
       <c r="B22" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
+      <c r="C22" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>40</v>
+      </c>
       <c r="E22" s="3"/>
       <c r="F22" s="3"/>
       <c r="G22" s="3"/>
@@ -949,8 +1034,12 @@
       <c r="B23" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
+      <c r="C23" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>41</v>
+      </c>
       <c r="E23" s="3"/>
       <c r="F23" s="3"/>
       <c r="G23" s="3"/>
@@ -964,8 +1053,12 @@
       <c r="B24" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
+      <c r="C24" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>40</v>
+      </c>
       <c r="E24" s="3"/>
       <c r="F24" s="3"/>
       <c r="G24" s="3"/>
@@ -1017,44 +1110,55 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:U1"/>
+  <dimension ref="A1:U3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="16.7265625" customWidth="1"/>
-    <col min="2" max="2" width="13.453125" customWidth="1"/>
-    <col min="3" max="3" width="17" customWidth="1"/>
-    <col min="4" max="4" width="29" customWidth="1"/>
-    <col min="5" max="5" width="23.453125" customWidth="1"/>
+    <col min="1" max="1" width="13.90625" customWidth="1"/>
+    <col min="2" max="2" width="15" customWidth="1"/>
+    <col min="3" max="3" width="31.36328125" customWidth="1"/>
+    <col min="4" max="4" width="37.1796875" customWidth="1"/>
+    <col min="5" max="5" width="34.26953125" customWidth="1"/>
+    <col min="6" max="6" width="13.1796875" customWidth="1"/>
+    <col min="7" max="7" width="25.90625" customWidth="1"/>
+    <col min="8" max="8" width="17.1796875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:21">
       <c r="A1" s="2" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>48</v>
+        <v>5</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
+        <v>58</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>61</v>
+      </c>
       <c r="K1" s="2"/>
       <c r="L1" s="2"/>
       <c r="M1" s="2"/>
@@ -1067,7 +1171,59 @@
       <c r="T1" s="2"/>
       <c r="U1" s="2"/>
     </row>
+    <row r="2" spans="1:21" ht="188.5">
+      <c r="A2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="F2" t="s">
+        <v>68</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21">
+      <c r="C3" t="s">
+        <v>64</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A2:A3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
+  <cols>
+    <col min="1" max="1" width="22.08984375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" ht="14.5" customHeight="1"/>
+    <row r="3" ht="20" customHeight="1"/>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
 </file>